--- a/_sync/游戏开发/体素角色/技术储备.xlsx
+++ b/_sync/游戏开发/体素角色/技术储备.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9455A3E1-511A-4007-A45A-8EB44A258F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612DCBF3-8B2F-4B9E-A037-600BB1B7A382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>体素世界设计</t>
   </si>
@@ -106,6 +106,26 @@
   </si>
   <si>
     <t>重定向具有大量复用优势,但是方块结构可能手K时间也不长.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试blender手K流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼批量形状化工具,选中物体和骨骼-&gt;点击执行-&gt;在原地复制一个形状副本-&gt;对齐轴心到骨骼-&gt;设置形状网格数据到骨骼图形-&gt;删除形状副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼批量形状化工具,选中物体和骨骼-&gt;点击执行-&gt;按选中的物体算一个形状网格数据,给到骨骼(好看,可自定义,但会丢失约束色彩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼批量形状化工具,选中物体和骨骼-&gt;点击执行-&gt;按选中的物体和骨骼变换值算一个BBone宽高(包围盒),给到骨骼(简单,且可保留约束色彩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议2和3一同生效,作为可选显示模式,一共三种显示模式快速切换,1骨骼模式,2方块模式,3自定义形状模式.额外一个选项,切换是否显示模型.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DD9909-64E9-4FC6-A87A-EFACE2B8E5E5}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -547,8 +567,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>